--- a/biology/Zoologie/Cladonychiidae/Cladonychiidae.xlsx
+++ b/biology/Zoologie/Cladonychiidae/Cladonychiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cladonychiidae sont une famille d'opilions laniatores. On connaît plus d'une trentaine d'espèces dans dix genres.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de cette famille se rencontrent en Amérique du Nord et en Europe.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Catalogue of Opiliones (03/04/2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Catalogue of Opiliones (03/04/2023) :
 Arbasus Roewer, 1935
 Briggsus Özdikmen &amp; Demir, 2008
 Erebomaster Cope, 1872
@@ -582,7 +598,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille a été décrite par Hadzi en 1935 comme une sous-famille des Triaenonychidae.
 </t>
@@ -613,7 +631,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hadzi, 1935 : « Ein eigentumlicher neuer Hölen-Opilionid aus Nord-Amerika, Cladonychium corii g.n. sp. n. » Biologia Generalis, vol. 11, no 1, p. 49-72.</t>
         </is>
